--- a/Project_CashFlow_Sensitivity_Analysis.xlsx
+++ b/Project_CashFlow_Sensitivity_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marconunez/Documents/Financial Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69599CAF-F0AE-094D-A165-7C8C7E235BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E3B97E-09D8-504B-A4D9-D93E8A7A19F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Inputs</t>
   </si>
@@ -182,16 +182,53 @@
   <si>
     <t>Number of Machines vs Initial Demand</t>
   </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Probability Scenario Analysis</t>
+  </si>
+  <si>
+    <t>Economic Condition</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad </t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Scenario Analysis Inputs</t>
+  </si>
+  <si>
+    <t>Economic Condition Probabilities</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +273,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,12 +482,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -465,9 +524,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -494,8 +558,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -669,16 +751,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-153959980.66387358</c:v>
+                  <c:v>180610396.85153463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76987452.578949437</c:v>
+                  <c:v>307690768.85854828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>216335973.83452493</c:v>
+                  <c:v>357091838.52937669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>299267600.2459566</c:v>
+                  <c:v>363332784.45231116</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>369276542.47415346</c:v>
@@ -2548,8 +2630,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A2:B19" totalsRowShown="0">
-  <autoFilter ref="A2:B19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A2:B24" totalsRowShown="0">
+  <autoFilter ref="A2:B24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Value"/>
@@ -2559,8 +2641,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A23:B45" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A23:B45" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A30:B52" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A30:B52" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Output Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Value" dataDxfId="0">
@@ -2868,30 +2950,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2903,12 +2988,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2916,19 +3001,33 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4">
         <v>50000</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="22"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="26"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -2938,12 +3037,24 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="19">
-        <f>B24</f>
+      <c r="E6" s="21">
+        <f>B31</f>
         <v>369276542.47415346</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="29"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2955,18 +3066,69 @@
       </c>
       <c r="E7">
         <f t="dataTable" ref="E7:E11" dt2D="0" dtr="0" r1="B16" ca="1"/>
-        <v>-153959980.66387358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180610396.85153463</v>
+      </c>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>76987452.578949437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>307690768.85854828</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="32">
+        <f>B31</f>
+        <v>369276542.47415346</v>
+      </c>
+      <c r="R8" s="30">
+        <v>50000</v>
+      </c>
+      <c r="S8" s="30">
+        <v>100000</v>
+      </c>
+      <c r="T8" s="30">
+        <v>150000</v>
+      </c>
+      <c r="U8" s="30">
+        <v>200000</v>
+      </c>
+      <c r="V8" s="30">
+        <v>250000</v>
+      </c>
+      <c r="W8" s="30">
+        <v>300000</v>
+      </c>
+      <c r="X8" s="30">
+        <v>350000</v>
+      </c>
+      <c r="Y8" s="30">
+        <v>400000</v>
+      </c>
+      <c r="Z8" s="30">
+        <v>450000</v>
+      </c>
+      <c r="AA8" s="33">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2974,10 +3136,45 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>216335973.83452493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>357091838.52937669</v>
+      </c>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="30">
+        <v>1</v>
+      </c>
+      <c r="R9" s="30">
+        <f t="dataTable" ref="R9:AA13" dt2D="1" dtr="1" r1="B12" r2="B16"/>
+        <v>150791288.5581795</v>
+      </c>
+      <c r="S9" s="30">
+        <v>180610396.85153463</v>
+      </c>
+      <c r="T9" s="30">
+        <v>180610396.85153463</v>
+      </c>
+      <c r="U9" s="30">
+        <v>180610396.85153463</v>
+      </c>
+      <c r="V9" s="30">
+        <v>180610396.85153463</v>
+      </c>
+      <c r="W9" s="30">
+        <v>180610396.85153463</v>
+      </c>
+      <c r="X9" s="30">
+        <v>180610396.85153463</v>
+      </c>
+      <c r="Y9" s="30">
+        <v>180610396.85153463</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>180610396.85153463</v>
+      </c>
+      <c r="AA9" s="33">
+        <v>180610396.85153463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -2988,10 +3185,44 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>299267600.2459566</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>363332784.45231116</v>
+      </c>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="30">
+        <v>2</v>
+      </c>
+      <c r="R10" s="30">
+        <v>196422222.14674664</v>
+      </c>
+      <c r="S10" s="30">
+        <v>307690768.85854828</v>
+      </c>
+      <c r="T10" s="30">
+        <v>348832013.89631784</v>
+      </c>
+      <c r="U10" s="30">
+        <v>364489070.36970085</v>
+      </c>
+      <c r="V10" s="30">
+        <v>364489070.36970085</v>
+      </c>
+      <c r="W10" s="30">
+        <v>364489070.36970085</v>
+      </c>
+      <c r="X10" s="30">
+        <v>364489070.36970085</v>
+      </c>
+      <c r="Y10" s="30">
+        <v>364489070.36970085</v>
+      </c>
+      <c r="Z10" s="30">
+        <v>364489070.36970085</v>
+      </c>
+      <c r="AA10" s="33">
+        <v>364489070.36970085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -3004,29 +3235,131 @@
       <c r="E11">
         <v>369276542.47415346</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="P11" s="31"/>
+      <c r="Q11" s="30">
+        <v>3</v>
+      </c>
+      <c r="R11" s="30">
+        <v>198409340.27837777</v>
+      </c>
+      <c r="S11" s="30">
+        <v>357091838.52937669</v>
+      </c>
+      <c r="T11" s="30">
+        <v>447133317.36653465</v>
+      </c>
+      <c r="U11" s="30">
+        <v>503324560.99290782</v>
+      </c>
+      <c r="V11" s="30">
+        <v>528813646.59583473</v>
+      </c>
+      <c r="W11" s="30">
+        <v>539611616.57747817</v>
+      </c>
+      <c r="X11" s="30">
+        <v>539611616.57747817</v>
+      </c>
+      <c r="Y11" s="30">
+        <v>539611616.57747817</v>
+      </c>
+      <c r="Z11" s="30">
+        <v>539611616.57747817</v>
+      </c>
+      <c r="AA11" s="33">
+        <v>539611616.57747817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12">
         <v>100000</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="P12" s="31"/>
+      <c r="Q12" s="30">
+        <v>4</v>
+      </c>
+      <c r="R12" s="30">
+        <v>200301833.73707408</v>
+      </c>
+      <c r="S12" s="30">
+        <v>363332784.45231116</v>
+      </c>
+      <c r="T12" s="30">
+        <v>489444428.75325716</v>
+      </c>
+      <c r="U12" s="30">
+        <v>581763586.36100388</v>
+      </c>
+      <c r="V12" s="30">
+        <v>637695373.0038017</v>
+      </c>
+      <c r="W12" s="30">
+        <v>677992170.38373685</v>
+      </c>
+      <c r="X12" s="30">
+        <v>696111212.98332</v>
+      </c>
+      <c r="Y12" s="30">
+        <v>706394993.91821849</v>
+      </c>
+      <c r="Z12" s="30">
+        <v>706394993.91821849</v>
+      </c>
+      <c r="AA12" s="33">
+        <v>706394993.91821849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="P13" s="34"/>
+      <c r="Q13" s="35">
+        <v>5</v>
+      </c>
+      <c r="R13" s="35">
+        <v>202104208.45964202</v>
+      </c>
+      <c r="S13" s="35">
+        <v>369276542.47415346</v>
+      </c>
+      <c r="T13" s="35">
+        <v>500720738.860542</v>
+      </c>
+      <c r="U13" s="35">
+        <v>617343081.39687324</v>
+      </c>
+      <c r="V13" s="35">
+        <v>700925721.93981361</v>
+      </c>
+      <c r="W13" s="35">
+        <v>767293313.9835906</v>
+      </c>
+      <c r="X13" s="35">
+        <v>810645985.5611062</v>
+      </c>
+      <c r="Y13" s="35">
+        <v>841917074.52640998</v>
+      </c>
+      <c r="Z13" s="35">
+        <v>855442228.59044874</v>
+      </c>
+      <c r="AA13" s="36">
+        <v>865236305.67130458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -3034,12 +3367,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -3047,81 +3380,46 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D20" s="20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="D20" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="9"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="23"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="19">
-        <f>B24</f>
+      <c r="E21" s="21">
+        <f>B31</f>
         <v>369276542.47415346</v>
       </c>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="26"/>
-    </row>
-    <row r="22" spans="1:27" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="15"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="D22">
         <v>50000</v>
       </c>
       <c r="E22">
-        <f t="dataTable" ref="E22:E31" dt2D="0" dtr="0" r1="B12"/>
+        <f t="dataTable" ref="E22:E31" dt2D="0" dtr="0" r1="B12" ca="1"/>
         <v>202104208.45964202</v>
       </c>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="26"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.3</v>
       </c>
       <c r="D23">
         <v>100000</v>
@@ -3129,51 +3427,13 @@
       <c r="E23">
         <v>369276542.47415346</v>
       </c>
-      <c r="P23" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="29">
-        <f>B24</f>
-        <v>369276542.47415346</v>
-      </c>
-      <c r="R23" s="27">
-        <v>50000</v>
-      </c>
-      <c r="S23" s="27">
-        <v>100000</v>
-      </c>
-      <c r="T23" s="27">
-        <v>150000</v>
-      </c>
-      <c r="U23" s="27">
-        <v>200000</v>
-      </c>
-      <c r="V23" s="27">
-        <v>250000</v>
-      </c>
-      <c r="W23" s="27">
-        <v>300000</v>
-      </c>
-      <c r="X23" s="27">
-        <v>350000</v>
-      </c>
-      <c r="Y23" s="27">
-        <v>400000</v>
-      </c>
-      <c r="Z23" s="27">
-        <v>450000</v>
-      </c>
-      <c r="AA23" s="30">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="6">
-        <f>NPV(B19, B26:B45)</f>
-        <v>369276542.47415346</v>
+        <v>44</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.2</v>
       </c>
       <c r="D24">
         <v>150000</v>
@@ -3181,417 +3441,447 @@
       <c r="E24">
         <v>500720738.860542</v>
       </c>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="27">
-        <v>1</v>
-      </c>
-      <c r="R24" s="27">
-        <f t="dataTable" ref="R24:AA28" dt2D="1" dtr="1" r1="B12" r2="B16" ca="1"/>
-        <v>-183779088.95722872</v>
-      </c>
-      <c r="S24" s="27">
-        <v>-153959980.66387358</v>
-      </c>
-      <c r="T24" s="27">
-        <v>-153959980.66387358</v>
-      </c>
-      <c r="U24" s="27">
-        <v>-153959980.66387358</v>
-      </c>
-      <c r="V24" s="27">
-        <v>-153959980.66387358</v>
-      </c>
-      <c r="W24" s="27">
-        <v>-153959980.66387358</v>
-      </c>
-      <c r="X24" s="27">
-        <v>-153959980.66387358</v>
-      </c>
-      <c r="Y24" s="27">
-        <v>-153959980.66387358</v>
-      </c>
-      <c r="Z24" s="27">
-        <v>-153959980.66387358</v>
-      </c>
-      <c r="AA24" s="30">
-        <v>-153959980.66387358</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D25">
         <v>200000</v>
       </c>
       <c r="E25">
         <v>617343081.39687324</v>
       </c>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="27">
-        <v>2</v>
-      </c>
-      <c r="R25" s="27">
-        <v>-34281094.132852145</v>
-      </c>
-      <c r="S25" s="27">
-        <v>76987452.578949437</v>
-      </c>
-      <c r="T25" s="27">
-        <v>118128697.61671904</v>
-      </c>
-      <c r="U25" s="27">
-        <v>133785754.09010203</v>
-      </c>
-      <c r="V25" s="27">
-        <v>133785754.09010203</v>
-      </c>
-      <c r="W25" s="27">
-        <v>133785754.09010203</v>
-      </c>
-      <c r="X25" s="27">
-        <v>133785754.09010203</v>
-      </c>
-      <c r="Y25" s="27">
-        <v>133785754.09010203</v>
-      </c>
-      <c r="Z25" s="27">
-        <v>133785754.09010203</v>
-      </c>
-      <c r="AA25" s="30">
-        <v>133785754.09010203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>250000</v>
+      </c>
+      <c r="E26">
+        <v>700925721.93981361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>300000</v>
+      </c>
+      <c r="E27">
+        <v>767293313.9835906</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>350000</v>
+      </c>
+      <c r="E28">
+        <v>810645985.5611062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="D29">
+        <v>400000</v>
+      </c>
+      <c r="E29">
+        <v>841917074.52640998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>450000</v>
+      </c>
+      <c r="E30">
+        <v>855442228.59044874</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="6">
+        <f>NPV(B19, B33:B52)</f>
+        <v>369276542.47415346</v>
+      </c>
+      <c r="D31">
+        <v>500000</v>
+      </c>
+      <c r="E31">
+        <v>865236305.67130458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>1</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B33" s="5">
         <f>CashFlow!J11</f>
         <v>24000000</v>
       </c>
-      <c r="D26">
-        <v>250000</v>
-      </c>
-      <c r="E26">
-        <v>700925721.93981361</v>
-      </c>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="27">
-        <v>3</v>
-      </c>
-      <c r="R26" s="27">
-        <v>57653475.58352612</v>
-      </c>
-      <c r="S26" s="27">
-        <v>216335973.83452493</v>
-      </c>
-      <c r="T26" s="27">
-        <v>306377452.67168295</v>
-      </c>
-      <c r="U26" s="27">
-        <v>362568696.29805607</v>
-      </c>
-      <c r="V26" s="27">
-        <v>388057781.90098315</v>
-      </c>
-      <c r="W26" s="27">
-        <v>398855751.88262665</v>
-      </c>
-      <c r="X26" s="27">
-        <v>398855751.88262665</v>
-      </c>
-      <c r="Y26" s="27">
-        <v>398855751.88262665</v>
-      </c>
-      <c r="Z26" s="27">
-        <v>398855751.88262665</v>
-      </c>
-      <c r="AA26" s="30">
-        <v>398855751.88262665</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>2</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B34" s="5">
         <f>CashFlow!J12</f>
         <v>24000000</v>
       </c>
-      <c r="D27">
-        <v>300000</v>
-      </c>
-      <c r="E27">
-        <v>767293313.9835906</v>
-      </c>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="27">
-        <v>4</v>
-      </c>
-      <c r="R27" s="27">
-        <v>136236649.53071964</v>
-      </c>
-      <c r="S27" s="27">
-        <v>299267600.2459566</v>
-      </c>
-      <c r="T27" s="27">
-        <v>425379244.5469026</v>
-      </c>
-      <c r="U27" s="27">
-        <v>517698402.15464956</v>
-      </c>
-      <c r="V27" s="27">
-        <v>573630188.79744732</v>
-      </c>
-      <c r="W27" s="27">
-        <v>613926986.17738247</v>
-      </c>
-      <c r="X27" s="27">
-        <v>632046028.77696562</v>
-      </c>
-      <c r="Y27" s="27">
-        <v>642329809.71186411</v>
-      </c>
-      <c r="Z27" s="27">
-        <v>642329809.71186411</v>
-      </c>
-      <c r="AA27" s="30">
-        <v>642329809.71186411</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>3</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B35" s="5">
         <f>CashFlow!J13</f>
         <v>24000000</v>
       </c>
-      <c r="D28">
-        <v>350000</v>
-      </c>
-      <c r="E28">
-        <v>810645985.5611062</v>
-      </c>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="32">
-        <v>5</v>
-      </c>
-      <c r="R28" s="32">
-        <v>202104208.45964202</v>
-      </c>
-      <c r="S28" s="32">
-        <v>369276542.47415346</v>
-      </c>
-      <c r="T28" s="32">
-        <v>500720738.860542</v>
-      </c>
-      <c r="U28" s="32">
-        <v>617343081.39687324</v>
-      </c>
-      <c r="V28" s="32">
-        <v>700925721.93981361</v>
-      </c>
-      <c r="W28" s="32">
-        <v>767293313.9835906</v>
-      </c>
-      <c r="X28" s="32">
-        <v>810645985.5611062</v>
-      </c>
-      <c r="Y28" s="32">
-        <v>841917074.52640998</v>
-      </c>
-      <c r="Z28" s="32">
-        <v>855442228.59044874</v>
-      </c>
-      <c r="AA28" s="33">
-        <v>865236305.67130458</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>4</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B36" s="5">
         <f>CashFlow!J14</f>
         <v>24000000</v>
       </c>
-      <c r="D29">
-        <v>400000</v>
-      </c>
-      <c r="E29">
-        <v>841917074.52640998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>5</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B37" s="5">
         <f>CashFlow!J15</f>
         <v>24000000</v>
       </c>
-      <c r="D30">
-        <v>450000</v>
-      </c>
-      <c r="E30">
-        <v>855442228.59044874</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>6</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B38" s="5">
         <f>CashFlow!J16</f>
         <v>29000000</v>
       </c>
-      <c r="D31">
-        <v>500000</v>
-      </c>
-      <c r="E31">
-        <v>865236305.67130458</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32">
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>7</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B39" s="5">
         <f>CashFlow!J17</f>
         <v>35000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="D39" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>8</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B40" s="5">
         <f>CashFlow!J18</f>
         <v>42200000</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>9</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B41" s="5">
         <f>CashFlow!J19</f>
         <v>50840000</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="D41" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>10</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B42" s="5">
         <f>CashFlow!J20</f>
         <v>61208000</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="D42" s="39"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>11</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B43" s="5">
         <f>CashFlow!J21</f>
         <v>73699599.999999985</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="2">
+        <f>B23</f>
+        <v>0.3</v>
+      </c>
+      <c r="F43">
+        <v>70000</v>
+      </c>
+      <c r="G43" s="43">
+        <v>300</v>
+      </c>
+      <c r="H43" s="4">
+        <f>E50</f>
+        <v>44580650.845422603</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>12</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B44" s="5">
         <f>CashFlow!J22</f>
         <v>74050000</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2">
+        <f>1-E43-E45</f>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="F44" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G44" s="42">
+        <v>500</v>
+      </c>
+      <c r="H44" s="4">
+        <f>F51</f>
+        <v>369276542.47415346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>13</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B45" s="5">
         <f>CashFlow!J23</f>
         <v>49050000</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="2">
+        <f>B24</f>
+        <v>0.2</v>
+      </c>
+      <c r="F45">
+        <v>130000</v>
+      </c>
+      <c r="G45" s="4">
+        <v>700</v>
+      </c>
+      <c r="H45" s="4">
+        <f>G52</f>
+        <v>824082238.27402318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>14</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B46" s="5">
         <f>CashFlow!J24</f>
         <v>24050000</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46">
+        <f>$E$43*F43+$E$44*F44+$E$45*F45</f>
+        <v>97000</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" ref="G46:H46" si="0">$E$43*G43+$E$44*G44+$E$45*G45</f>
+        <v>480</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="0"/>
+        <v>362828914.14550817</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>15</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B47" s="5">
         <f>CashFlow!J25</f>
         <v>-950000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>16</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B48" s="5">
         <f>CashFlow!J26</f>
         <v>-1000000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>17</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B49" s="5">
         <f>CashFlow!J27</f>
         <v>-1000000</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="D49" s="20">
+        <f>B31</f>
+        <v>369276542.47415346</v>
+      </c>
+      <c r="E49">
+        <f>F43</f>
+        <v>70000</v>
+      </c>
+      <c r="F49">
+        <f>F44</f>
+        <v>100000</v>
+      </c>
+      <c r="G49">
+        <f>F45</f>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>18</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B50" s="5">
         <f>CashFlow!J28</f>
         <v>-1000000</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="D50" s="4">
+        <f>G43</f>
+        <v>300</v>
+      </c>
+      <c r="E50">
+        <f t="dataTable" ref="E50:G52" dt2D="1" dtr="1" r1="B12" r2="B10" ca="1"/>
+        <v>44580650.845422603</v>
+      </c>
+      <c r="F50">
+        <v>63991857.145158529</v>
+      </c>
+      <c r="G50">
+        <v>80605302.753033549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>19</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B51" s="5">
         <f>CashFlow!J29</f>
         <v>-1000000</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="D51" s="4">
+        <f>G44</f>
+        <v>500</v>
+      </c>
+      <c r="E51">
+        <v>272220510.97547394</v>
+      </c>
+      <c r="F51">
+        <v>369276542.47415346</v>
+      </c>
+      <c r="G51">
+        <v>452343770.51352859</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>20</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B52" s="5">
         <f>CashFlow!J30</f>
         <v>-1000000</v>
       </c>
+      <c r="D52" s="4">
+        <f>G45</f>
+        <v>700</v>
+      </c>
+      <c r="E52">
+        <v>499860371.10552508</v>
+      </c>
+      <c r="F52">
+        <v>674561227.80314803</v>
+      </c>
+      <c r="G52">
+        <v>824082238.27402318</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="R22:AA22"/>
-    <mergeCell ref="Q20:AA21"/>
+  <mergeCells count="13">
+    <mergeCell ref="R7:AA7"/>
+    <mergeCell ref="Q5:AA6"/>
+    <mergeCell ref="D39:M40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="P23:P28"/>
+    <mergeCell ref="P8:P13"/>
   </mergeCells>
-  <conditionalFormatting sqref="R24:AA28">
+  <conditionalFormatting sqref="R9:AA13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3605,9 +3895,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B24" calculatedColumn="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="2">
     <tablePart r:id="rId3"/>
@@ -3618,10 +3905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7B956A-1D08-394B-9ABC-F33B1870DD54}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3962,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
+        <f>F15 * (1 + $B$5 * E16)</f>
         <v>120000</v>
       </c>
       <c r="G16">
@@ -3982,7 +4269,7 @@
         <v>29000000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>Machine!A17</f>
         <v>7</v>
@@ -4024,7 +4311,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>Machine!A18</f>
         <v>8</v>
@@ -4066,7 +4353,7 @@
         <v>42200000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>Machine!A19</f>
         <v>9</v>
@@ -4108,7 +4395,7 @@
         <v>50840000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>Machine!A20</f>
         <v>10</v>
@@ -4150,7 +4437,7 @@
         <v>61208000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>Machine!A21</f>
         <v>11</v>
@@ -4192,7 +4479,7 @@
         <v>73699599.999999985</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>Machine!A22</f>
         <v>12</v>
@@ -4234,7 +4521,7 @@
         <v>74050000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>Machine!A23</f>
         <v>13</v>
@@ -4276,7 +4563,7 @@
         <v>49050000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <f>Machine!A24</f>
         <v>14</v>
@@ -4318,7 +4605,7 @@
         <v>24050000</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>Machine!A25</f>
         <v>15</v>
@@ -4360,7 +4647,7 @@
         <v>-950000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>Machine!A26</f>
         <v>16</v>
@@ -4401,8 +4688,11 @@
         <f t="shared" si="4"/>
         <v>-1000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <f>Machine!A27</f>
         <v>17</v>
@@ -4444,7 +4734,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>Machine!A28</f>
         <v>18</v>
@@ -4486,7 +4776,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>Machine!A29</f>
         <v>19</v>
@@ -4528,7 +4818,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <f>Machine!A30</f>
         <v>20</v>
@@ -4584,7 +4874,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4683,7 +4973,7 @@
         <v>1000000</v>
       </c>
       <c r="C11">
-        <f>IF(AND(A11 &gt;= $B$5 + 1, A11 &lt;= $B$5 + 5), $B$3, 0)</f>
+        <f>IF(AND(A11 &gt;= $B$5 + 1, A11 &lt;= $B$5 + $B$6), $B$3, 0)</f>
         <v>0</v>
       </c>
       <c r="D11">
@@ -4703,11 +4993,11 @@
         <v>1000000</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C30" si="1">IF(AND(A12 &gt;= $B$5 + 1, A12 &lt;= $B$5 + 5), $B$3, 0)</f>
+        <f t="shared" ref="C12:C30" si="1">IF(AND(A12 &gt;= $B$5 + 1, A12 &lt;= $B$5 + $B$6), $B$3, 0)</f>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>IF(AND(D11 &lt; $B$6, A12 &lt; $B$5), D11 + 1, IF(AND(A12 &gt; $B$5, A12 &lt; $B$5 + 6), D11 - 1, D11))</f>
+        <f>IF(AND(D11 &lt; $B$6, A12 &lt; $B$5), D11 + 1, IF(AND(A12 &gt; $B$5, A12 &lt; $B$5 + $B$6 + 1), D11 - 1, D11))</f>
         <v>2</v>
       </c>
       <c r="E12">
@@ -4728,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D30" si="3">IF(AND(D12 &lt; $B$6, A13 &lt; $B$5), D12 + 1, IF(AND(A13 &gt; $B$5, A13 &lt; $B$5 + 6), D12 - 1, D12))</f>
+        <f t="shared" ref="D13:D30" si="3">IF(AND(D12 &lt; $B$6, A13 &lt; $B$5), D12 + 1, IF(AND(A13 &gt; $B$5, A13 &lt; $B$5 + $B$6 + 1), D12 - 1, D12))</f>
         <v>3</v>
       </c>
       <c r="E13">
